--- a/results/cu_mnm/15x15/cu_mnm_15x15_True_2_1000.xlsx
+++ b/results/cu_mnm/15x15/cu_mnm_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.15033312</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15033312</v>
+        <v>8.470898529999998</v>
       </c>
       <c r="H2" t="n">
-        <v>8.470906530000001</v>
+        <v>481.82970353</v>
       </c>
       <c r="I2" t="n">
         <v>5.715733864834297</v>
@@ -548,10 +548,10 @@
         <v>0.01765766506084542</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01765766506084542</v>
+        <v>1.038744466823721</v>
       </c>
       <c r="N2" t="n">
-        <v>1.038745293166874</v>
+        <v>87.85142470676432</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.09297674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09297674</v>
+        <v>7.929341020000001</v>
       </c>
       <c r="H3" t="n">
-        <v>7.92933315</v>
+        <v>687.9941678200001</v>
       </c>
       <c r="I3" t="n">
         <v>11.57388572739643</v>
@@ -595,10 +595,10 @@
         <v>0.01443191388939495</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01443191388939495</v>
+        <v>0.7531221812524539</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7531108001965915</v>
+        <v>116.4694584567193</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.22176765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11088375</v>
+        <v>3.31464951</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3146527</v>
+        <v>101.15000589</v>
       </c>
       <c r="I4" t="n">
         <v>4.600522122955589</v>
@@ -642,10 +642,10 @@
         <v>0.03077771045152869</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01538869778301455</v>
+        <v>0.4536641048678035</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4536657396253543</v>
+        <v>25.54897390697773</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.14274165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07137061</v>
+        <v>3.24284849</v>
       </c>
       <c r="H5" t="n">
-        <v>3.24285595</v>
+        <v>151.69987375</v>
       </c>
       <c r="I5" t="n">
         <v>8.171398151341528</v>
@@ -689,10 +689,10 @@
         <v>0.0243442400662231</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01217219910940743</v>
+        <v>0.3429550758920183</v>
       </c>
       <c r="N5" t="n">
-        <v>0.342955263628287</v>
+        <v>35.14484673333508</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.29643163</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0741078</v>
+        <v>1.10917767</v>
       </c>
       <c r="H6" t="n">
-        <v>1.10917942</v>
+        <v>17.17963813</v>
       </c>
       <c r="I6" t="n">
         <v>2.928168398533488</v>
@@ -736,10 +736,10 @@
         <v>0.05493644711177056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01373413371089669</v>
+        <v>0.2534476437025396</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2534499305254332</v>
+        <v>6.769580720283482</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.20590428</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05147606</v>
+        <v>1.20927583</v>
       </c>
       <c r="H7" t="n">
-        <v>1.20927733</v>
+        <v>29.6374162</v>
       </c>
       <c r="I7" t="n">
         <v>5.12961684426517</v>
@@ -783,10 +783,10 @@
         <v>0.04183879583734119</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01045981829072929</v>
+        <v>0.1999060830073323</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1999027490467491</v>
+        <v>9.679015808747899</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.3269910499999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05449872000000001</v>
+        <v>0.54786952</v>
       </c>
       <c r="H8" t="n">
-        <v>0.54786718</v>
+        <v>5.67933464</v>
       </c>
       <c r="I8" t="n">
         <v>1.790298625696051</v>
@@ -830,10 +830,10 @@
         <v>0.07320365401233915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0122007134697431</v>
+        <v>0.1726342034945155</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1726322904695421</v>
+        <v>2.700303271253178</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.22164021</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0369401</v>
+        <v>0.6083432400000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6083417999999999</v>
+        <v>10.57761577</v>
       </c>
       <c r="I9" t="n">
         <v>4.143755145602441</v>
@@ -877,10 +877,10 @@
         <v>0.04835681979283146</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008059390073594798</v>
+        <v>0.1404447433399849</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1404437955092964</v>
+        <v>4.748946264075736</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.30646553</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03830817</v>
+        <v>0.29505848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.29505858</v>
+        <v>2.354936260000001</v>
       </c>
       <c r="I10" t="n">
         <v>1.433861904075828</v>
@@ -924,10 +924,10 @@
         <v>0.0845234631374025</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01056548002313284</v>
+        <v>0.1194965853319483</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1194961550706141</v>
+        <v>1.390704615183722</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.21120971</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02640128</v>
+        <v>0.33874006</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3387388</v>
+        <v>4.62158223</v>
       </c>
       <c r="I11" t="n">
         <v>3.37881227243722</v>
@@ -971,10 +971,10 @@
         <v>0.05128123944421424</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00641000778169273</v>
+        <v>0.09368018421475756</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09368090235702486</v>
+        <v>2.390849924646737</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.28934839</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02893488</v>
+        <v>0.18407432</v>
       </c>
       <c r="H12" t="n">
-        <v>0.18407386</v>
+        <v>1.22188418</v>
       </c>
       <c r="I12" t="n">
         <v>1.278260517245976</v>
@@ -1018,10 +1018,10 @@
         <v>0.08987534340886137</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008987327257691068</v>
+        <v>0.08572415951680402</v>
       </c>
       <c r="N12" t="n">
-        <v>0.08572468885320833</v>
+        <v>0.8353332643361175</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.1920448</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01920444</v>
+        <v>0.2046409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.20464124</v>
+        <v>2.34155125</v>
       </c>
       <c r="I13" t="n">
         <v>2.992321839306392</v>
@@ -1065,10 +1065,10 @@
         <v>0.05145318177211662</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005145379384983717</v>
+        <v>0.07017460458968985</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07017508656665154</v>
+        <v>1.477540619396944</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/cu_mnm/15x15/cu_mnm_15x15_True_2_1000.xlsx
+++ b/results/cu_mnm/15x15/cu_mnm_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
